--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col18a1-Ptprs.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col18a1-Ptprs.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.79399266666667</v>
+        <v>0.5789666666666667</v>
       </c>
       <c r="H2">
-        <v>47.381978</v>
+        <v>1.7369</v>
       </c>
       <c r="I2">
-        <v>0.2968109173698557</v>
+        <v>0.01523705650035473</v>
       </c>
       <c r="J2">
-        <v>0.2968109173698557</v>
+        <v>0.01523705650035472</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.618716333333333</v>
+        <v>2.425633666666667</v>
       </c>
       <c r="N2">
-        <v>7.856148999999998</v>
+        <v>7.276901000000001</v>
       </c>
       <c r="O2">
-        <v>0.07115908183301339</v>
+        <v>0.0662600404061536</v>
       </c>
       <c r="P2">
-        <v>0.07115908183301338</v>
+        <v>0.06626004040615362</v>
       </c>
       <c r="Q2">
-        <v>41.35998656474688</v>
+        <v>1.404361038544445</v>
       </c>
       <c r="R2">
-        <v>372.239879082722</v>
+        <v>12.6392493469</v>
       </c>
       <c r="S2">
-        <v>0.02112079235805334</v>
+        <v>0.00100960797938435</v>
       </c>
       <c r="T2">
-        <v>0.02112079235805333</v>
+        <v>0.00100960797938435</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.79399266666667</v>
+        <v>0.5789666666666667</v>
       </c>
       <c r="H3">
-        <v>47.381978</v>
+        <v>1.7369</v>
       </c>
       <c r="I3">
-        <v>0.2968109173698557</v>
+        <v>0.01523705650035473</v>
       </c>
       <c r="J3">
-        <v>0.2968109173698557</v>
+        <v>0.01523705650035472</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>46.509849</v>
       </c>
       <c r="O3">
-        <v>0.4212748702999519</v>
+        <v>0.4234968256437875</v>
       </c>
       <c r="P3">
-        <v>0.4212748702999519</v>
+        <v>0.4234968256437876</v>
       </c>
       <c r="Q3">
-        <v>244.8587380112581</v>
+        <v>8.975884080900002</v>
       </c>
       <c r="R3">
-        <v>2203.728642101322</v>
+        <v>80.7829567281</v>
       </c>
       <c r="S3">
-        <v>0.1250389807185957</v>
+        <v>0.006452845060055265</v>
       </c>
       <c r="T3">
-        <v>0.1250389807185957</v>
+        <v>0.006452845060055265</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.79399266666667</v>
+        <v>0.5789666666666667</v>
       </c>
       <c r="H4">
-        <v>47.381978</v>
+        <v>1.7369</v>
       </c>
       <c r="I4">
-        <v>0.2968109173698557</v>
+        <v>0.01523705650035473</v>
       </c>
       <c r="J4">
-        <v>0.2968109173698557</v>
+        <v>0.01523705650035472</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.67887366666666</v>
+        <v>18.67887366666667</v>
       </c>
       <c r="N4">
-        <v>56.036621</v>
+        <v>56.03662100000001</v>
       </c>
       <c r="O4">
-        <v>0.5075660478670347</v>
+        <v>0.5102431339500588</v>
       </c>
       <c r="P4">
-        <v>0.5075660478670347</v>
+        <v>0.5102431339500588</v>
       </c>
       <c r="Q4">
-        <v>295.0139937129264</v>
+        <v>10.81444522387778</v>
       </c>
       <c r="R4">
-        <v>2655.125943416338</v>
+        <v>97.33000701490002</v>
       </c>
       <c r="S4">
-        <v>0.1506511442932067</v>
+        <v>0.007774603460915111</v>
       </c>
       <c r="T4">
-        <v>0.1506511442932066</v>
+        <v>0.00777460346091511</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>74.60864599999999</v>
       </c>
       <c r="I5">
-        <v>0.4673646309781075</v>
+        <v>0.6545086962501954</v>
       </c>
       <c r="J5">
-        <v>0.4673646309781075</v>
+        <v>0.6545086962501954</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.618716333333333</v>
+        <v>2.425633666666667</v>
       </c>
       <c r="N5">
-        <v>7.856148999999998</v>
+        <v>7.276901000000001</v>
       </c>
       <c r="O5">
-        <v>0.07115908183301339</v>
+        <v>0.0662600404061536</v>
       </c>
       <c r="P5">
-        <v>0.07115908183301338</v>
+        <v>0.06626004040615362</v>
       </c>
       <c r="Q5">
-        <v>65.12629329602821</v>
+        <v>60.32441452067177</v>
       </c>
       <c r="R5">
-        <v>586.1366396642538</v>
+        <v>542.919730686046</v>
       </c>
       <c r="S5">
-        <v>0.03325723802162726</v>
+        <v>0.04336777265971686</v>
       </c>
       <c r="T5">
-        <v>0.03325723802162726</v>
+        <v>0.04336777265971687</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>74.60864599999999</v>
       </c>
       <c r="I6">
-        <v>0.4673646309781075</v>
+        <v>0.6545086962501954</v>
       </c>
       <c r="J6">
-        <v>0.4673646309781075</v>
+        <v>0.6545086962501954</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>46.509849</v>
       </c>
       <c r="O6">
-        <v>0.4212748702999519</v>
+        <v>0.4234968256437875</v>
       </c>
       <c r="P6">
-        <v>0.4212748702999519</v>
+        <v>0.4234968256437876</v>
       </c>
       <c r="Q6">
         <v>385.559651061606</v>
@@ -818,10 +818,10 @@
         <v>3470.036859554454</v>
       </c>
       <c r="S6">
-        <v>0.1968889742980871</v>
+        <v>0.2771823552182117</v>
       </c>
       <c r="T6">
-        <v>0.1968889742980871</v>
+        <v>0.2771823552182117</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>74.60864599999999</v>
       </c>
       <c r="I7">
-        <v>0.4673646309781075</v>
+        <v>0.6545086962501954</v>
       </c>
       <c r="J7">
-        <v>0.4673646309781075</v>
+        <v>0.6545086962501954</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.67887366666666</v>
+        <v>18.67887366666667</v>
       </c>
       <c r="N7">
-        <v>56.036621</v>
+        <v>56.03662100000001</v>
       </c>
       <c r="O7">
-        <v>0.5075660478670347</v>
+        <v>0.5102431339500588</v>
       </c>
       <c r="P7">
-        <v>0.5075660478670347</v>
+        <v>0.5102431339500588</v>
       </c>
       <c r="Q7">
-        <v>464.535157691685</v>
+        <v>464.5351576916852</v>
       </c>
       <c r="R7">
-        <v>4180.816419225165</v>
+        <v>4180.816419225166</v>
       </c>
       <c r="S7">
-        <v>0.2372184186583932</v>
+        <v>0.3339585683722668</v>
       </c>
       <c r="T7">
-        <v>0.2372184186583932</v>
+        <v>0.3339585683722668</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>37.646287</v>
       </c>
       <c r="I8">
-        <v>0.2358244516520368</v>
+        <v>0.33025424724945</v>
       </c>
       <c r="J8">
-        <v>0.2358244516520368</v>
+        <v>0.3302542472494499</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.618716333333333</v>
+        <v>2.425633666666667</v>
       </c>
       <c r="N8">
-        <v>7.856148999999998</v>
+        <v>7.276901000000001</v>
       </c>
       <c r="O8">
-        <v>0.07115908183301339</v>
+        <v>0.0662600404061536</v>
       </c>
       <c r="P8">
-        <v>0.07115908183301338</v>
+        <v>0.06626004040615362</v>
       </c>
       <c r="Q8">
-        <v>32.86164888541811</v>
+        <v>30.43870039073189</v>
       </c>
       <c r="R8">
-        <v>295.754839968763</v>
+        <v>273.948303516587</v>
       </c>
       <c r="S8">
-        <v>0.0167810514533328</v>
+        <v>0.0218826597670524</v>
       </c>
       <c r="T8">
-        <v>0.01678105145333279</v>
+        <v>0.0218826597670524</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>37.646287</v>
       </c>
       <c r="I9">
-        <v>0.2358244516520368</v>
+        <v>0.33025424724945</v>
       </c>
       <c r="J9">
-        <v>0.2358244516520368</v>
+        <v>0.3302542472494499</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>46.509849</v>
       </c>
       <c r="O9">
-        <v>0.4212748702999519</v>
+        <v>0.4234968256437875</v>
       </c>
       <c r="P9">
-        <v>0.4212748702999519</v>
+        <v>0.4234968256437876</v>
       </c>
       <c r="Q9">
         <v>194.547013753407</v>
@@ -1004,10 +1004,10 @@
         <v>1750.923123780663</v>
       </c>
       <c r="S9">
-        <v>0.0993469152832691</v>
+        <v>0.1398616253655206</v>
       </c>
       <c r="T9">
-        <v>0.09934691528326907</v>
+        <v>0.1398616253655206</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>37.646287</v>
       </c>
       <c r="I10">
-        <v>0.2358244516520368</v>
+        <v>0.33025424724945</v>
       </c>
       <c r="J10">
-        <v>0.2358244516520368</v>
+        <v>0.3302542472494499</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.67887366666666</v>
+        <v>18.67887366666667</v>
       </c>
       <c r="N10">
-        <v>56.036621</v>
+        <v>56.03662100000001</v>
       </c>
       <c r="O10">
-        <v>0.5075660478670347</v>
+        <v>0.5102431339500588</v>
       </c>
       <c r="P10">
-        <v>0.5075660478670347</v>
+        <v>0.5102431339500588</v>
       </c>
       <c r="Q10">
-        <v>234.3967462973585</v>
+        <v>234.3967462973586</v>
       </c>
       <c r="R10">
-        <v>2109.570716676227</v>
+        <v>2109.570716676228</v>
       </c>
       <c r="S10">
-        <v>0.1196964849154349</v>
+        <v>0.1685099621168769</v>
       </c>
       <c r="T10">
-        <v>0.1196964849154349</v>
+        <v>0.1685099621168769</v>
       </c>
     </row>
   </sheetData>
